--- a/data/long_razon/P24_3-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_3-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 145,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 32,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 22,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 84,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 67,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 87,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 90,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 33,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 39,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,41; 201,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-50,14; 67,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 49,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 80,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 84,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 39,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 95,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 53,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 25,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>427,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-24,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-18,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,35; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,13; 277,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 44,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 130,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,18; 242,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 85,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 205,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 191,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 34,42</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,97 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,52; 139,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 34,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 57,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 58,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 37,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 71,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 31,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 16,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_3-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_3-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -678,509 +683,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
+      <c r="O4" s="5" t="inlineStr"/>
+      <c r="P4" s="5" t="inlineStr"/>
+      <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
+      <c r="O5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr"/>
+      <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+      <c r="O6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="inlineStr"/>
+      <c r="Q6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
+      <c r="O7" s="5" t="inlineStr"/>
+      <c r="P7" s="5" t="inlineStr"/>
+      <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1188,167 +829,143 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+      <c r="O12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="inlineStr"/>
+      <c r="Q12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+      <c r="O13" s="5" t="inlineStr"/>
+      <c r="P13" s="5" t="inlineStr"/>
+      <c r="Q13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+      <c r="O14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="inlineStr"/>
+      <c r="Q14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+      <c r="O15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="inlineStr"/>
+      <c r="Q15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1356,14 +973,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_3-Urba-long_razon.xlsx
+++ b/data/long_razon/P24_3-Urba-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.7994886791476989</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2249790344901381</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1474613074118155</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.383725027737228</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2804003857385567</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.3089305322181266</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2586862243981707</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.3148066451412267</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.6057312680612422</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.4677585593461416</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.5081898999042982</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.004590890774296344</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>0.08115373062693025</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.4994230893163098</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.3718646231275971</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>0.1557181866992</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5295612309033764</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.435302535257138</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1145516560120942</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.1570962993867206</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.04953050446020517</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.127674922152841</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.03545491206523643</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.1247516142047062</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.03855604169844951</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.1611484695539509</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.2506037745051745</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.130153859182483</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>0.1245474827432234</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0.07323189413070756</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.731870451100967</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1468665791435476</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2741101257751843</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.203498995825387</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.8774073866307881</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.8955605064906819</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.8055392821001877</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.8421816479745288</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.381714027230388</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.9792044072481955</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.9714164302983517</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.3182295777181512</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.3764829601430593</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.9708424088321543</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.7500332530074512</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.08293733147208841</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.006971896404529712</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.01228714848298855</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6053486557416911</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.6583620584721787</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1223812799795095</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.2430440781825065</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.0954161293056635</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.9838566732825964</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>1.92934384142328</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.105093429558718</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.1241343838484247</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.04373156810867184</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.7905194310608014</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1.137642275217406</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.3754022741669215</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4561165411621242</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3436150265274702</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.03310706016351835</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2402516327839447</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2374339438541835</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2186750622046719</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3734973495664269</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.325784701724254</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.4109416300082795</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1954781187292211</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.2042734307792854</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.2874549278957543</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.2842965185666422</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0.3461936836405423</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.7557739711433838</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.714421626207407</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4537551630914195</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.55299932874974</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.387276315827139</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6917001921447791</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.031759990604611</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3913914245520558</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.976988035438642</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>5.769731754694967</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.5290332314713435</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.6278513298976086</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.261269815015415</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.466988753769194</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>2.496912092131969</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,20 +1009,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>4.214790201831568</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.4821915548515042</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2163433580091949</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4842996299024954</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.02348456657992984</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.3815002274403817</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1234830341726008</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.4607674336945621</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>0.5237064161023329</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.4303661656065292</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.1763257532660229</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.4722707439305474</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1056,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.003920373615780145</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4673452177752747</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6110984021193059</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.5008944278881446</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-0.521031958927045</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.465240473569051</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5852566137720749</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4687078388309181</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>-0.2333876641525626</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2945633520791528</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.4926564756240118</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.2778307047437232</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -876,19 +1104,41 @@
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>3.339659572728987</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4950286035711525</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.091171640752514</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>1.206273713795654</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.651141117872012</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.7598153534105724</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>2.920986268716001</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>1.833002442618038</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.727078178854359</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.298610029758468</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>1.927539533403867</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,21 +1152,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.5654566947562221</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.08803328764190547</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1001128856088519</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4831207720481308</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3562519122635938</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1968591185975676</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.2639360591337646</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.08599568451846065</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.7327488111149579</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.6686560006591542</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3412686974636696</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.08340944078348966</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.008057415952867368</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.6098653713677288</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.5028260394487279</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1205,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.1136721214669879</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3365556908262125</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2925178206124449</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.09502992704262403</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.03645086553013627</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.07464651993383832</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.02081912445066577</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.1470215177676335</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.3359052346249677</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.2401110114730273</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.08570015212380948</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1390240961873096</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1771076049046264</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.325022815130355</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0.1836571702932875</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1258,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>1.177488046818408</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2673504897741346</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1494142214879116</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.9954568642361736</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8809417918660349</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5399898065386342</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.6927866787446875</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3815299598706468</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.261392813130263</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>1.240972307142024</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.643153517908619</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.3209157545452366</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.179218133747246</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.9623999686843798</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.8972255908213581</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
